--- a/Datasets/results_opt_1.xlsx
+++ b/Datasets/results_opt_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\PYFCS\test_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafav\Desktop\Tesis\VITA_VS\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD84D481-DBA0-4E78-A8A7-A1CC3CBAFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FFC627-00D8-441E-B55E-DA9897EBD587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43305" yWindow="225" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25425" yWindow="1155" windowWidth="14400" windowHeight="8175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,10 +76,10 @@
     <t>[('B4', 0.435), ('C4', 0.365), ('A4', 0.097)]</t>
   </si>
   <si>
-    <t>[('A3.5', 0.421), ('B3', 0.322), ('B4', 0.245)]</t>
-  </si>
-  <si>
-    <t>[('C4', 0.338), ('A3.5', 0.272), ('B4', 0.193)]</t>
+    <t>[('A3_5', 0.421), ('B3', 0.322), ('B4', 0.245)]</t>
+  </si>
+  <si>
+    <t>[('C4', 0.338), ('A3_5', 0.272), ('B4', 0.193)]</t>
   </si>
   <si>
     <t>A4.png</t>
@@ -88,7 +88,7 @@
     <t>[('C4', 0.546), ('A4', 0.279), ('B4', 0.101)]</t>
   </si>
   <si>
-    <t>[('A4', 0.711), ('C3', 0.225), ('A3.5', 0.062)]</t>
+    <t>[('A4', 0.711), ('C3', 0.225), ('A3_5', 0.062)]</t>
   </si>
   <si>
     <t>[('C4', 0.718), ('A4', 0.254), ('C3', 0.018)]</t>
@@ -136,7 +136,7 @@
     <t>[('B4', 0.643), ('C4', 0.254), ('A4', 0.043)]</t>
   </si>
   <si>
-    <t>[('B4', 0.964), ('B3', 0.035), ('A3.5', 0.001)]</t>
+    <t>[('B4', 0.964), ('B3', 0.035), ('A3_5', 0.001)]</t>
   </si>
   <si>
     <t>[('B4', 0.513), ('C4', 0.32), ('C3', 0.098)]</t>
@@ -589,15 +589,14 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="2" width="37.26953125" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" customWidth="1"/>
+    <col min="4" max="4" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
